--- a/xlsx/已開發國家_intext.xlsx
+++ b/xlsx/已開發國家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>未開發國家</t>
   </si>
   <si>
-    <t>政策_政策_美國_已開發國家</t>
+    <t>体育运动_体育运动_种族歧视_已開發國家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
